--- a/codes/test.xlsx
+++ b/codes/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projXL2PDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFFD217-29EA-4F73-90DB-0A6648A5133C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5636D6E1-1556-4114-84F0-DFE222CA3018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,19 +20,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
-  <si>
-    <t>https://drive.google.com/file/d/1JeKT93OmFpC7qRPfBRfLtXMBj6xCYsQR/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>links</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+  <si>
+    <t>li</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=13UNUhXirv7JB072YEreOERu_AuWlsAi2</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=13UNUhXirv7JB072YEreOERu_AuWlsAi6</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=13UNUhXirv7JB072YEreOERu_AuWlsAi7</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=13UNUhXirv7JB072YEreOERu_AuWlsAi8</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=13UNUhXirv7JB072YEreOERu_AuWlsAi9</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Y7IjsvIsigeld0jvKxJpAHEzq7rP4lSE/view</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -50,6 +65,18 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -69,15 +96,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -294,71 +324,80 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="86.21875" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="68.33203125" customWidth="1"/>
     <col min="4" max="9" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>0</v>
+    </row>
+    <row r="3" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A2:A7" r:id="rId2" display="https://drive.google.com/file/d/1JeKT93OmFpC7qRPfBRfLtXMBj6xCYsQR/view?usp=drive_link" xr:uid="{601D8A32-D769-4A23-B48F-F8AEBE321D41}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{6FFF0E17-C7A1-4ECA-AAF8-7AE495BC7EAC}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{F038862C-C1BA-46AA-9AA0-6C08E7A1098E}"/>
+    <hyperlink ref="B4:B5" r:id="rId3" display="https://drive.google.com/file/d/1Y7IjsvIsigeld0jvKxJpAHEzq7rP4lSE/view" xr:uid="{558C3DEF-49F3-438C-AE2F-1DED9DB61761}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
